--- a/Results/Syn/syn_data_3.xlsx
+++ b/Results/Syn/syn_data_3.xlsx
@@ -50,10 +50,10 @@
     <t>τ_l</t>
   </si>
   <si>
-    <t>N_l</t>
+    <t>α</t>
   </si>
   <si>
-    <t>N_D</t>
+    <t>β</t>
   </si>
   <si>
     <t>r</t>

--- a/Results/Syn/syn_data_3.xlsx
+++ b/Results/Syn/syn_data_3.xlsx
@@ -101,7 +101,7 @@
     <t>/</t>
   </si>
   <si>
-    <t>ci95</t>
+    <t>cihw95</t>
   </si>
   <si>
     <t>lb</t>
